--- a/OutputData/ProductInfo.xlsx
+++ b/OutputData/ProductInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akojjapu\Documents\UiPath\ProductDetails\OutputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akojjapu\Documents\UiPath\UipathAssesment1\OutputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Product Name</t>
   </si>
@@ -89,18 +89,6 @@
     <t>Realme C12 (Power Blue, 32 GB)</t>
   </si>
   <si>
-    <t>Realme 6 (Comet White, 64 GB)</t>
-  </si>
-  <si>
-    <t>Realme C11 (Rich Grey, 32 GB)</t>
-  </si>
-  <si>
-    <t>₹6,999</t>
-  </si>
-  <si>
-    <t>Realme C11 (Rich Green, 32 GB)</t>
-  </si>
-  <si>
     <t>POCO M2 (Slate Blue, 64 GB)</t>
   </si>
   <si>
@@ -110,33 +98,6 @@
     <t>POCO C3 (Arctic Blue, 64 GB)</t>
   </si>
   <si>
-    <t>POCO C3 (Lime Green, 32 GB)</t>
-  </si>
-  <si>
-    <t>₹7,499</t>
-  </si>
-  <si>
-    <t>POCO C3 (Lime Green, 64 GB)</t>
-  </si>
-  <si>
-    <t>POCO C3 (Matte Black, 32 GB)</t>
-  </si>
-  <si>
-    <t>POCO C3 (Matte Black, 64 GB)</t>
-  </si>
-  <si>
-    <t>LG Gram 17 Core i7 10th Gen - (8 GB/512 GB SSD/Windows 10 Home) Gram 17Z90N Laptop</t>
-  </si>
-  <si>
-    <t>₹99,990</t>
-  </si>
-  <si>
-    <t>LG Gram 14 Core i5 10th Gen - (8 GB/256 GB SSD/Windows 10 Home) Gram 14Z90N Laptop</t>
-  </si>
-  <si>
-    <t>₹67,990</t>
-  </si>
-  <si>
     <t>Acer P2 Series Core i5 10th Gen - (8 GB/1 TB HDD/Windows 10 Home) TMP214-52 Thin and Light Laptop</t>
   </si>
   <si>
@@ -149,12 +110,6 @@
     <t>₹57,990</t>
   </si>
   <si>
-    <t>LG Gram 15 Core i5 10th Gen - (8 GB/256 GB SSD/Windows 10 Home) Gram 15Z90N Laptop</t>
-  </si>
-  <si>
-    <t>₹75,990</t>
-  </si>
-  <si>
     <t>Asus Celeron Dual Core - (4 GB/1 TB HDD/Windows 10 Home) X543MA-GQ1015T Laptop</t>
   </si>
   <si>
@@ -212,21 +167,6 @@
     <t>HP 15 Core i3 10th Gen - (4 GB/1 TB HDD/Windows 10 Home) 15-DA3001TU Laptop</t>
   </si>
   <si>
-    <t>LG Gram Core i5 8th Gen - (8 GB/256 GB SSD/Windows 10 Home) Gram 14Z990 Thin and Light Laptop</t>
-  </si>
-  <si>
-    <t>₹64,490</t>
-  </si>
-  <si>
-    <t>LG Gram Core i7 8th Gen - (8 GB/512 GB SSD/Windows 10 Home) Gram 17Z990 Thin and Light Laptop</t>
-  </si>
-  <si>
-    <t>₹84,990</t>
-  </si>
-  <si>
-    <t>LG Gram Core i5 8th Gen - (8 GB/256 GB SSD/Windows 10 Home) Gram 15Z990 Thin and Light Laptop</t>
-  </si>
-  <si>
     <t>Sony Alpha 7M3 Mirrorless Camera Body Only</t>
   </si>
   <si>
@@ -320,19 +260,88 @@
     <t>₹49,500</t>
   </si>
   <si>
-    <t>Nikon D5600 DSLR Camera Body with Dual Lens: AF-P DX Nikkor 18 - 55 MM F/3.5-5.6G VR and 70-300 MM F/4...</t>
-  </si>
-  <si>
-    <t>₹49,999</t>
-  </si>
-  <si>
     <t>Asus EeeBook 12 Celeron Dual Core - (4 GB/64 GB EMMC Storage/Windows 10 Home) E203NA-FD164T Thin and L...</t>
   </si>
   <si>
     <t>₹16,990</t>
   </si>
   <si>
-    <t>POCO M2 Pro (Green and Greener, 64 GB)</t>
+    <t>OPPO A52 (Stream White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme C15 Qualcomm Edition (Power Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>I Kall K280 (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>₹5,449</t>
+  </si>
+  <si>
+    <t>I Kall K3 (blue and sea blue, 16 GB)</t>
+  </si>
+  <si>
+    <t>₹4,399</t>
+  </si>
+  <si>
+    <t>I Kall K210 (Blue, 16 GB)</t>
+  </si>
+  <si>
+    <t>₹3,999</t>
+  </si>
+  <si>
+    <t>I Kall K250 (Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Honor MagicBook 15 Ryzen 5 Quad Core 3500U - (8 GB/256 GB SSD/Windows 10 Home) Boh-WAQ9HNR Thin and Li...</t>
+  </si>
+  <si>
+    <t>₹42,990</t>
+  </si>
+  <si>
+    <t>HP 15s Core i5 10th Gen - (8 GB/1 TB HDD/Windows 10 Home) 15s-DU1034TU Thin and Light Laptop</t>
+  </si>
+  <si>
+    <t>₹58,599</t>
+  </si>
+  <si>
+    <t>HP 15 Ryzen 3 Dual Core 3200U - (4 GB/1 TB HDD/Windows 10 Home) 15-db1069AU Laptop</t>
+  </si>
+  <si>
+    <t>₹31,990</t>
+  </si>
+  <si>
+    <t>Dell Inspiron Ryzen 5 Quad Core 3500U - (8 GB/512 GB SSD/Windows 10 Home) Inspiron 3505 Laptop</t>
+  </si>
+  <si>
+    <t>₹46,990</t>
+  </si>
+  <si>
+    <t>Fujifilm Instax Mini 11 Special Gift Box Instant Camera</t>
+  </si>
+  <si>
+    <t>₹5,499</t>
+  </si>
+  <si>
+    <t>Realme 7i (Fusion Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>I Kall K700 (Green, 32 GB)</t>
+  </si>
+  <si>
+    <t>₹5,199</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Gaming 3 Ryzen 7 Octa Core 4800H - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home/4 GB Graph...</t>
+  </si>
+  <si>
+    <t>₹72,990</t>
+  </si>
+  <si>
+    <t>Acer Predator Triton 300 Core i5 10th Gen - (8 GB/512 GB SSD/Windows 10 Home/4 GB Graphics/NVIDIA Gefo...</t>
+  </si>
+  <si>
+    <t>₹79,990</t>
   </si>
 </sst>
 </file>
@@ -650,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,10 +678,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>4.7</v>
@@ -680,10 +689,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>4.5999999999999996</v>
@@ -691,10 +700,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>4.5999999999999996</v>
@@ -702,21 +711,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>4.5</v>
@@ -724,10 +733,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>4.5</v>
@@ -735,10 +744,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>4.5</v>
@@ -746,21 +755,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>4.4000000000000004</v>
@@ -768,10 +777,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>4.4000000000000004</v>
@@ -779,10 +788,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>4.3</v>
@@ -790,10 +799,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>4.2</v>
@@ -801,10 +810,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>4.0999999999999996</v>
@@ -812,10 +821,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -823,10 +832,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -834,10 +843,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>3.9</v>
@@ -845,10 +854,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>3.9</v>
@@ -856,10 +865,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>3.7</v>
@@ -867,10 +876,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,10 +916,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>4.7</v>
@@ -910,10 +927,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -921,32 +938,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>4.3</v>
@@ -954,10 +971,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>4.3</v>
@@ -965,21 +982,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>4.2</v>
@@ -987,10 +1004,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>4.2</v>
@@ -998,10 +1015,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>4.2</v>
@@ -1009,21 +1026,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>4.0999999999999996</v>
@@ -1031,10 +1048,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>4.0999999999999996</v>
@@ -1042,10 +1059,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>4.0999999999999996</v>
@@ -1053,10 +1070,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>3.9</v>
@@ -1064,40 +1081,40 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>3.8</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1154,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1148,10 +1165,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4.4000000000000004</v>
@@ -1159,10 +1176,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4.4000000000000004</v>
@@ -1170,10 +1187,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4.4000000000000004</v>
@@ -1181,10 +1198,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>4.4000000000000004</v>
@@ -1192,10 +1209,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>4.4000000000000004</v>
@@ -1203,10 +1220,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>4.4000000000000004</v>
@@ -1214,10 +1231,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>4.4000000000000004</v>
@@ -1225,10 +1242,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>4.4000000000000004</v>
@@ -1236,10 +1253,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>4.4000000000000004</v>
@@ -1247,10 +1264,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>4.4000000000000004</v>
@@ -1258,10 +1275,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>4.4000000000000004</v>
@@ -1269,21 +1286,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>4.3</v>
@@ -1291,57 +1308,57 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C21">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
